--- a/run1/P04_MF2/T24_shap_tabPFN/S02.xlsx
+++ b/run1/P04_MF2/T24_shap_tabPFN/S02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4548170784029126</v>
+        <v>0.4753852586951354</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -476,11 +476,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fz__weld__ratio_beyond_r_sigma__r_1</t>
+          <t>R</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1307651909074694</v>
+        <v>0.2433891942201872</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -494,11 +494,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>W</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04832991720306583</v>
+        <v>0.0725150958757103</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -512,11 +512,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fz_location</t>
+          <t>Fx_location</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04085167026561168</v>
+        <v>0.05285337350118974</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -530,11 +530,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Mz_location</t>
+          <t>Fy__dwell__fft_coefficient__attr_"abs"__coeff_59</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03615156017217992</v>
+        <v>0.04123769163088005</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -548,11 +548,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Fy__weld__fft_coefficient__attr_"real"__coeff_51</t>
+          <t>Fx__dwell__fft_coefficient__attr_"abs"__coeff_11</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03064306038949225</v>
+        <v>0.03928695031872994</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -566,11 +566,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fx__dwell__partial_autocorrelation__lag_6</t>
+          <t>Fx__weld__change_quantiles__f_agg_"var"__isabs_True__qh_0.6__ql_0.2</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02964482371882898</v>
+        <v>0.03568346921799405</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -584,11 +584,11 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Fx__dwell__fft_coefficient__attr_"abs"__coeff_11</t>
+          <t>Fz_location</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0255012833157606</v>
+        <v>0.03331859876888056</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -602,11 +602,11 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Fx_location</t>
+          <t>Fz__dwell__fft_coefficient__attr_"angle"__coeff_4</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02215950864936329</v>
+        <v>0.02324951891540198</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -620,11 +620,11 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Fx__weld__fft_coefficient__attr_"imag"__coeff_21</t>
+          <t>Fy__weld__energy_ratio_by_chunks__num_segments_10__segment_focus_5</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01949101724312641</v>
+        <v>0.02210582472686102</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -638,11 +638,11 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Fz__weld__ratio_beyond_r_sigma__r_2</t>
+          <t>Fy__dwell__fft_coefficient__attr_"real"__coeff_71</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01883048221417185</v>
+        <v>0.02139688547163493</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -656,11 +656,11 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Fz__dwell__approximate_entropy__m_2__r_0.7</t>
+          <t>Fz__weld__change_quantiles__f_agg_"mean"__isabs_False__qh_1.0__ql_0.4</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01779190589958388</v>
+        <v>0.02079539452039633</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -674,11 +674,11 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Fy__dwell__autocorrelation__lag_3</t>
+          <t>D</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01640192632718633</v>
+        <v>0.01836320442840039</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -692,11 +692,11 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Mz__weld__energy_ratio_by_chunks__num_segments_10__segment_focus_4</t>
+          <t>Fz__weld__agg_linear_trend__attr_"rvalue"__chunk_len_5__f_agg_"var"</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01543149226927198</v>
+        <v>0.01476428231295098</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -710,11 +710,11 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Fy__weld__ar_coefficient__coeff_5__k_10</t>
+          <t>Fx__weld__fft_coefficient__attr_"abs"__coeff_5</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01379396282653842</v>
+        <v>0.01418327913505357</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -728,11 +728,11 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Fz__weld__fft_coefficient__attr_"real"__coeff_84</t>
+          <t>Fx__dwell__ar_coefficient__coeff_0__k_10</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01378830315338241</v>
+        <v>0.01418066840796244</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -746,11 +746,11 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Fz__dwell__approximate_entropy__m_2__r_0.9</t>
+          <t>Fy__weld__change_quantiles__f_agg_"mean"__isabs_True__qh_0.4__ql_0.0</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01302859181628769</v>
+        <v>0.01142864289466248</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -764,11 +764,11 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Fx__weld__fft_coefficient__attr_"abs"__coeff_58</t>
+          <t>Mz__dwell__augmented_dickey_fuller__attr_"teststat"__autolag_"AIC"</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01208603907273047</v>
+        <v>0.007439257282038894</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Mz__weld__fft_coefficient__attr_"abs"__coeff_83</t>
+          <t>Fz__dwell__fft_coefficient__attr_"real"__coeff_4</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0117832302607389</v>
+        <v>0.006608154088878238</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -800,11 +800,11 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Fz__weld__change_quantiles__f_agg_"mean"__isabs_False__qh_1.0__ql_0.4</t>
+          <t>Mz__dwell__augmented_dickey_fuller__attr_"pvalue"__autolag_"AIC"</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01162321013139768</v>
+        <v>0.005164529690990181</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -813,654 +813,6 @@
       </c>
       <c r="D21" t="n">
         <v>20</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Mz__dwell__change_quantiles__f_agg_"mean"__isabs_True__qh_0.8__ql_0.2</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.009740665467688814</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>SHAP_importance</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Mz__weld__fft_coefficient__attr_"angle"__coeff_15</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.009189314438521655</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>SHAP_importance</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Fy__weld__energy_ratio_by_chunks__num_segments_10__segment_focus_5</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.009115220513194799</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>SHAP_importance</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Fx__dwell__fft_coefficient__attr_"real"__coeff_62</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.009074959955695603</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>SHAP_importance</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Fy__dwell__fft_coefficient__attr_"abs"__coeff_59</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.008375591663126316</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>SHAP_importance</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Fz__weld__fft_coefficient__attr_"real"__coeff_85</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0.008022999138726542</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>SHAP_importance</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Fx__dwell__ar_coefficient__coeff_0__k_10</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>0.007742121893291672</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>SHAP_importance</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Mz__weld__quantile__q_0.1</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>0.007663229338100387</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>SHAP_importance</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Fx__dwell__change_quantiles__f_agg_"mean"__isabs_True__qh_0.8__ql_0.2</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>0.007367951873069008</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>SHAP_importance</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Fy_location</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0.007087947800755501</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>SHAP_importance</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Mz__weld__fft_coefficient__attr_"abs"__coeff_58</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0.007083511581489195</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>SHAP_importance</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Mz__dwell__fft_coefficient__attr_"real"__coeff_62</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>0.007005404658331018</v>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>SHAP_importance</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Fx__weld__fft_coefficient__attr_"abs"__coeff_5</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>0.00679642253413072</v>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>SHAP_importance</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Mz__dwell__change_quantiles__f_agg_"var"__isabs_False__qh_0.8__ql_0.2</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>0.006662950876893269</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>SHAP_importance</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Fx__weld__fft_coefficient__attr_"angle"__coeff_31</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0.006204117115380036</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>SHAP_importance</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Fy__weld__change_quantiles__f_agg_"mean"__isabs_True__qh_0.4__ql_0.0</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0.005864560823991067</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>SHAP_importance</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Fz__dwell__fft_coefficient__attr_"real"__coeff_4</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>0.005693722981959581</v>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>SHAP_importance</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Fx__weld__fft_coefficient__attr_"real"__coeff_31</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0.005680054064012236</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>SHAP_importance</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0.00566336453751622</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>SHAP_importance</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Fx__weld__change_quantiles__f_agg_"var"__isabs_True__qh_0.6__ql_0.2</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>0.005648179983836599</v>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>SHAP_importance</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Fy__dwell__change_quantiles__f_agg_"mean"__isabs_True__qh_0.8__ql_0.2</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>0.005552895839274343</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>SHAP_importance</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Fz__dwell__fft_coefficient__attr_"angle"__coeff_68</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>0.004078157530683611</v>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>SHAP_importance</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Fy__dwell__fft_coefficient__attr_"real"__coeff_71</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>0.00361862306696518</v>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>SHAP_importance</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Mz__dwell__augmented_dickey_fuller__attr_"teststat"__autolag_"AIC"</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>0.003589635863641484</v>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>SHAP_importance</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Mz__dwell__fft_coefficient__attr_"real"__coeff_42</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>0.003571858991765314</v>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>SHAP_importance</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Fy__weld__fft_coefficient__attr_"abs"__coeff_61</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>0.003562144744339296</v>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>SHAP_importance</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Fy__dwell__first_location_of_minimum</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>0.003195706463884562</v>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>SHAP_importance</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Mz__weld__last_location_of_maximum</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>0.003152101758233686</v>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>SHAP_importance</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Fy__weld__fft_coefficient__attr_"imag"__coeff_61</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>0.003120906988543639</v>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>SHAP_importance</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Fz__dwell__fft_coefficient__attr_"angle"__coeff_4</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>0.00281723317069312</v>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>SHAP_importance</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Mz__dwell__augmented_dickey_fuller__attr_"pvalue"__autolag_"AIC"</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>0.002721234069516262</v>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>SHAP_importance</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Fy__dwell__last_location_of_minimum</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>0.002715260003848622</v>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>SHAP_importance</t>
-        </is>
-      </c>
-      <c r="D53" t="n">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Fz__dwell__change_quantiles__f_agg_"mean"__isabs_True__qh_0.4__ql_0.0</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>0.002388678626933446</v>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>SHAP_importance</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Fx__dwell__quantile__q_0.7</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>0.002321671422881385</v>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>SHAP_importance</t>
-        </is>
-      </c>
-      <c r="D55" t="n">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Fz__weld__agg_linear_trend__attr_"rvalue"__chunk_len_5__f_agg_"var"</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>0.002197688123689861</v>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>SHAP_importance</t>
-        </is>
-      </c>
-      <c r="D56" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>0.001207567900160535</v>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>SHAP_importance</t>
-        </is>
-      </c>
-      <c r="D57" t="n">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
